--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10942,10 +10942,8 @@
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -10971,10 +10969,8 @@
       </c>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -11000,10 +10996,8 @@
       </c>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -11029,10 +11023,8 @@
       </c>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -11058,10 +11050,8 @@
       </c>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -11095,10 +11085,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -11132,10 +11120,8 @@
           <t>$ -93.0B</t>
         </is>
       </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -11165,10 +11151,8 @@
           <t>$ 262B</t>
         </is>
       </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -11198,10 +11182,8 @@
           <t>$ 355.0B</t>
         </is>
       </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -11219,10 +11201,8 @@
       <c r="D408" t="inlineStr"/>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -11240,10 +11220,8 @@
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -11277,10 +11255,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -11314,10 +11290,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -11351,10 +11325,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G412" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -11384,10 +11356,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -11417,10 +11387,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -11450,10 +11418,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -11483,10 +11449,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -11516,10 +11480,8 @@
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -11549,10 +11511,8 @@
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -11578,10 +11538,8 @@
       </c>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -11607,10 +11565,8 @@
       </c>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -11636,10 +11592,8 @@
       </c>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr"/>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -11669,10 +11623,8 @@
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -11698,10 +11650,8 @@
       </c>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -11727,10 +11677,8 @@
       </c>
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -11756,10 +11704,8 @@
       </c>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -11785,10 +11731,8 @@
       </c>
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -11806,10 +11750,8 @@
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -11827,10 +11769,8 @@
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -11848,10 +11788,8 @@
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -11890,10 +11828,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -11923,10 +11859,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G432" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -11956,10 +11890,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -11989,10 +11921,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -12022,10 +11952,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -12051,10 +11979,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -12080,10 +12006,8 @@
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -12105,10 +12029,8 @@
       </c>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -12130,10 +12052,8 @@
       </c>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -12155,10 +12075,8 @@
       </c>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -12180,10 +12098,8 @@
       </c>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -12201,10 +12117,8 @@
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -12222,10 +12136,8 @@
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -12247,10 +12159,8 @@
       </c>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -12268,24 +12178,34 @@
       </c>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>PPI MoMJAN</t>
+        </is>
+      </c>
       <c r="C446" t="inlineStr"/>
-      <c r="D446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12295,28 +12215,20 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12328,28 +12240,16 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12361,28 +12261,16 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12394,28 +12282,20 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12427,24 +12307,16 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr"/>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12456,25 +12328,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>146.842</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
           <t>3</t>
@@ -12489,21 +12353,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
+      <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
           <t>3</t>
@@ -12518,25 +12378,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr">
         <is>
           <t>3</t>
@@ -12551,25 +12403,17 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
           <t>3</t>
@@ -12579,26 +12423,18 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr"/>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
           <t>3</t>
@@ -12608,12 +12444,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -12622,66 +12458,46 @@
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
           <t>3</t>
@@ -12691,30 +12507,18 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
           <t>3</t>
@@ -12724,30 +12528,22 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+          <t>4.913%</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr">
         <is>
           <t>3</t>
@@ -12757,26 +12553,18 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr">
         <is>
           <t>3</t>
@@ -12786,172 +12574,160 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Retail Sales MoMJAN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
-      <c r="D464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
-      <c r="F465" t="inlineStr"/>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -12965,82 +12741,118 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Import Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C470" t="inlineStr"/>
-      <c r="D470" t="inlineStr"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C471" t="inlineStr"/>
-      <c r="D471" t="inlineStr"/>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYJAN</t>
+        </is>
+      </c>
       <c r="C472" t="inlineStr"/>
-      <c r="D472" t="inlineStr"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -13054,18 +12866,18 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -13079,31 +12891,43 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMJAN</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
-      <c r="D476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -13117,16 +12941,20 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
-      <c r="D478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr">
@@ -13138,22 +12966,30 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="E479" t="inlineStr"/>
-      <c r="F479" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G479" t="inlineStr">
         <is>
           <t>3</t>
@@ -13163,20 +12999,16 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>$17.9T</t>
-        </is>
-      </c>
+      <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr"/>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
@@ -13188,12 +13020,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13209,1528 +13041,15 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E483" t="inlineStr"/>
-      <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
-      <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr"/>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="E485" t="inlineStr"/>
-      <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E486" t="inlineStr"/>
-      <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr"/>
-      <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr"/>
-      <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr"/>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr"/>
-      <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr"/>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr"/>
-      <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr"/>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr"/>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr"/>
-      <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E504" t="inlineStr"/>
-      <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr"/>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>$-87.0B</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr"/>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr"/>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G544"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11819,10 +11819,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -11852,10 +11850,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G431" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -11885,10 +11881,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -11914,10 +11908,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -11943,10 +11935,8 @@
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -11968,10 +11958,8 @@
       </c>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -11993,10 +11981,8 @@
       </c>
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -12018,10 +12004,8 @@
       </c>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -12043,10 +12027,8 @@
       </c>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -12064,10 +12046,8 @@
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -12085,10 +12065,8 @@
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -12110,10 +12088,8 @@
       </c>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -12131,116 +12107,98 @@
       </c>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E445" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
       <c r="D446" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$-87.0B</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -12252,35 +12210,15 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr"/>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12290,24 +12228,20 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12319,28 +12253,20 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12352,24 +12278,16 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr"/>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12381,25 +12299,13 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
         <is>
           <t>3</t>
@@ -12414,25 +12320,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
           <t>3</t>
@@ -12447,21 +12345,13 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr"/>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
           <t>3</t>
@@ -12471,80 +12361,72 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
-      <c r="D454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E456" t="inlineStr"/>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
           <t>3</t>
@@ -12554,30 +12436,22 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
           <t>3</t>
@@ -12587,30 +12461,18 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
           <t>3</t>
@@ -12620,26 +12482,18 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
           <t>3</t>
@@ -12649,30 +12503,18 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
           <t>3</t>
@@ -12687,7 +12529,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -12696,27 +12538,23 @@
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr">
@@ -12733,13 +12571,13 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E463" t="inlineStr"/>
@@ -12753,30 +12591,18 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
           <t>3</t>
@@ -12784,31 +12610,27 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr"/>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Retail Sales MoMJAN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
@@ -12821,89 +12643,129 @@
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Export Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr"/>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C468" t="inlineStr"/>
-      <c r="D468" t="inlineStr"/>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr"/>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12917,18 +12779,18 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12942,31 +12804,43 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C473" t="inlineStr"/>
-      <c r="D473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12980,16 +12854,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
-      <c r="D475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
@@ -13001,18 +12879,18 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -13026,18 +12904,18 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -13051,16 +12929,20 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
-      <c r="D478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr">
@@ -13072,18 +12954,18 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -13097,18 +12979,18 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>5.025M</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -13122,58 +13004,70 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
+        </is>
+      </c>
       <c r="C481" t="inlineStr"/>
-      <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
-      <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
@@ -13185,1415 +13079,15 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr"/>
-      <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
-      <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E486" t="inlineStr"/>
-      <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr"/>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E487" t="inlineStr"/>
-      <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr"/>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr"/>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr"/>
-      <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr"/>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr"/>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr"/>
-      <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr"/>
-      <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr"/>
-      <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E505" t="inlineStr"/>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E506" t="inlineStr"/>
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>$-87.0B</t>
-        </is>
-      </c>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr"/>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr"/>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr"/>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12239,10 +12239,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -12276,10 +12274,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -12313,10 +12309,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -12350,10 +12344,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -12387,10 +12379,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -12420,10 +12410,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -12449,10 +12437,8 @@
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -12474,10 +12460,8 @@
       </c>
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -12499,10 +12483,8 @@
       </c>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -12524,10 +12506,8 @@
       </c>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -12549,10 +12529,8 @@
       </c>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -12570,10 +12548,8 @@
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -12591,10 +12567,8 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -12616,10 +12590,8 @@
       </c>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -12637,118 +12609,100 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+          <t>0.16M</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.205%</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
           <t>2</t>
@@ -12758,57 +12712,49 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -12820,35 +12766,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12858,24 +12784,24 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12887,28 +12813,24 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12920,28 +12842,24 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12953,19 +12871,19 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1886K</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -12977,78 +12895,82 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>216.75K</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>146.842</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>147.2</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -13060,28 +12982,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -13093,28 +13011,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -13126,12 +13040,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13155,30 +13069,18 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
           <t>3</t>
@@ -13188,12 +13090,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13202,27 +13104,23 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
@@ -13234,20 +13132,16 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
+      <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
@@ -13259,30 +13153,18 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
           <t>3</t>
@@ -13290,16 +13172,20 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -13311,18 +13197,18 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
@@ -13334,7 +13220,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
+          <t>Friday February 14 2025</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -13347,136 +13233,200 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Export Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr"/>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G494" t="inlineStr">
         <is>
           <t>3</t>
@@ -13486,43 +13436,55 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G496" t="inlineStr">
         <is>
           <t>3</t>
@@ -13532,43 +13494,55 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
           <t>3</t>
@@ -13578,22 +13552,26 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G499" t="inlineStr">
         <is>
           <t>3</t>
@@ -13603,60 +13581,84 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>5.025M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYJAN</t>
+        </is>
+      </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>2</t>
@@ -13666,22 +13668,30 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G503" t="inlineStr">
         <is>
           <t>3</t>
@@ -13691,20 +13701,16 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
@@ -13716,20 +13722,16 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
+      <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
@@ -13741,1537 +13743,15 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12239,10 +12239,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -12276,10 +12274,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -12313,10 +12309,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -12350,10 +12344,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -12387,10 +12379,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -12420,10 +12410,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -12449,10 +12437,8 @@
       </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -12482,10 +12468,8 @@
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -12511,10 +12495,8 @@
       </c>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -12540,10 +12522,8 @@
       </c>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -12569,10 +12549,8 @@
       </c>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -12598,10 +12576,8 @@
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -12619,10 +12595,8 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -12640,10 +12614,8 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -12665,118 +12637,100 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+          <t>0.16M</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.205%</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
           <t>2</t>
@@ -12786,57 +12740,49 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -12848,35 +12794,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12886,24 +12812,24 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12915,28 +12841,24 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12948,28 +12870,24 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12981,19 +12899,19 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1886K</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -13005,78 +12923,82 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>216.75K</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>146.842</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>147.2</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -13088,28 +13010,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -13121,28 +13039,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -13154,12 +13068,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13183,30 +13097,22 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
           <t>3</t>
@@ -13216,12 +13122,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13230,27 +13136,23 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
@@ -13262,18 +13164,18 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -13287,30 +13189,22 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
           <t>3</t>
@@ -13318,16 +13212,20 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -13339,18 +13237,18 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
@@ -13362,7 +13260,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
+          <t>Friday February 14 2025</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -13375,142 +13273,198 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Export Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -13522,43 +13476,55 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G496" t="inlineStr">
         <is>
           <t>3</t>
@@ -13568,43 +13534,55 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
           <t>3</t>
@@ -13614,22 +13592,26 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G499" t="inlineStr">
         <is>
           <t>3</t>
@@ -13639,60 +13621,84 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>5.025M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYJAN</t>
+        </is>
+      </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>2</t>
@@ -13702,22 +13708,30 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G503" t="inlineStr">
         <is>
           <t>3</t>
@@ -13727,20 +13741,16 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
@@ -13752,20 +13762,16 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
+      <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
@@ -13777,1545 +13783,15 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12239,10 +12239,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -12276,10 +12274,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -12313,10 +12309,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -12350,10 +12344,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -12387,10 +12379,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -12420,10 +12410,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -12449,10 +12437,8 @@
       </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -12482,10 +12468,8 @@
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -12511,10 +12495,8 @@
       </c>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -12540,10 +12522,8 @@
       </c>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -12569,10 +12549,8 @@
       </c>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -12598,10 +12576,8 @@
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -12619,10 +12595,8 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -12640,10 +12614,8 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -12665,118 +12637,100 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+          <t>0.16M</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.205%</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
           <t>2</t>
@@ -12786,57 +12740,49 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -12848,35 +12794,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12886,24 +12812,24 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12915,28 +12841,24 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12948,28 +12870,24 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12981,19 +12899,19 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1886K</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -13005,78 +12923,82 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>216.75K</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>146.842</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>147.2</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -13088,28 +13010,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -13121,28 +13039,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -13154,12 +13068,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13183,30 +13097,22 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
           <t>3</t>
@@ -13216,12 +13122,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13230,27 +13136,23 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
@@ -13262,18 +13164,18 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -13287,30 +13189,22 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
           <t>3</t>
@@ -13318,16 +13212,20 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -13339,18 +13237,18 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
@@ -13362,7 +13260,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
+          <t>Friday February 14 2025</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -13375,142 +13273,198 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Export Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -13522,43 +13476,55 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G496" t="inlineStr">
         <is>
           <t>3</t>
@@ -13568,43 +13534,55 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
           <t>3</t>
@@ -13614,22 +13592,26 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G499" t="inlineStr">
         <is>
           <t>3</t>
@@ -13639,60 +13621,84 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>5.025M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYJAN</t>
+        </is>
+      </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>2</t>
@@ -13702,22 +13708,30 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G503" t="inlineStr">
         <is>
           <t>3</t>
@@ -13727,20 +13741,16 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
@@ -13752,20 +13762,16 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
+      <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
@@ -13777,1549 +13783,15 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12239,10 +12239,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -12276,10 +12274,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -12313,10 +12309,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -12350,10 +12344,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -12387,10 +12379,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -12420,10 +12410,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -12449,10 +12437,8 @@
       </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -12482,10 +12468,8 @@
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -12511,10 +12495,8 @@
       </c>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -12540,10 +12522,8 @@
       </c>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -12569,10 +12549,8 @@
       </c>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -12598,10 +12576,8 @@
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -12619,10 +12595,8 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -12640,10 +12614,8 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -12669,118 +12641,100 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+          <t>0.16M</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.205%</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
           <t>2</t>
@@ -12790,57 +12744,49 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -12852,35 +12798,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12890,24 +12816,24 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12919,28 +12845,24 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12952,28 +12874,24 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12985,19 +12903,19 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1886K</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -13009,78 +12927,82 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>216.75K</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>146.842</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>147.2</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -13092,28 +13014,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -13125,28 +13043,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -13158,12 +13072,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13187,30 +13101,22 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
           <t>3</t>
@@ -13220,12 +13126,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13234,27 +13140,23 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
@@ -13266,18 +13168,18 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -13291,30 +13193,22 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
           <t>3</t>
@@ -13322,16 +13216,20 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -13343,16 +13241,20 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E486" t="inlineStr"/>
@@ -13366,7 +13268,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
+          <t>Friday February 14 2025</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -13379,142 +13281,198 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Export Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -13526,43 +13484,55 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G496" t="inlineStr">
         <is>
           <t>3</t>
@@ -13572,43 +13542,55 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
           <t>3</t>
@@ -13618,22 +13600,26 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G499" t="inlineStr">
         <is>
           <t>3</t>
@@ -13643,60 +13629,84 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>5.025M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYJAN</t>
+        </is>
+      </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>2</t>
@@ -13706,22 +13716,30 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G503" t="inlineStr">
         <is>
           <t>3</t>
@@ -13731,20 +13749,16 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
@@ -13756,20 +13770,16 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
+      <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
@@ -13781,1553 +13791,15 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
